--- a/Hiking_data.xlsx
+++ b/Hiking_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://byu-my.sharepoint.com/personal/jnrpobee_byu_edu/Documents/surfaceStudio/Jones lab/Pandas_Dataframe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_D16813365118A754889524783F8E912A9C49DACB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0E7679-943C-4C1A-9F05-A781E6B938D5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_D16813365118A754889524783F8E912A9C49DACB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A22F3314-9AB5-41CD-A33F-671EEE68FFD3}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="24160" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0 (3)" sheetId="1" r:id="rId1"/>
@@ -3889,12 +3889,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AD301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4018,7 +4018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>38</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>33</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>28</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>34</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>38</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>20</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>22</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>52</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>32</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>18</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>21</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>26</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>51</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>42</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>27</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>38</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>23</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>28</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>25</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>28</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>28</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>29</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>28</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>65</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>30</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>23</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>36</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>26</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>34</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>37</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>50</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>56</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>38</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>19</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>53</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>37</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>19</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>22</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>31</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>29</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>30</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>40</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>27</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>33</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>33</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>22</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>28</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>51</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>33</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>27</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>26</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>30</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>34</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>29</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>30</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>26</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>56</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>41</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>29</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>42</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>31</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>27</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>56</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>19</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>23</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>53</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>46</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>25</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>36</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>49</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>60</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>25</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>38</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>37</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>28</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>28</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>27</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>41</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>40</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>45</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>59</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>32</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>50</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>57</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>23</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>28</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>19</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>40</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>41</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>30</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>31</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>32</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>25</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>61</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>28</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>26</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>32</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>63</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>25</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>24</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>42</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>42</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>28</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>36</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>35</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>35</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>48</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>36</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>38</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>64</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>21</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>59</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>23</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>21</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>26</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>24</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>35</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>37</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>46</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>56</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>22</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>56</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>29</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>27</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>56</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>35</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>53</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>50</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>36</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>28</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>67</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>50</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>35</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>21</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>32</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>31</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>29</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>31</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>21</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>31</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>36</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>22</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>35</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>59</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>42</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>52</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>47</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>49</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>30</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>32</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>62</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>31</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>58</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>52</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>23</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>24</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>20</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>20</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>26</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>32</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>20</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>27</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>24</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>34</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>28</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>31</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>23</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>33</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>36</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>29</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>39</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>41</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>22</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>32</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>29</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>51</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>28</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>41</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>30</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>28</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>30</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>23</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>31</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>44</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>43</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>37</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>38</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>20</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>30</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>42</v>
       </c>
@@ -20256,7 +20256,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>18</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>25</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>32</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>29</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>31</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>25</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>22</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>58</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>51</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>30</v>
       </c>
@@ -21060,7 +21060,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>27</v>
       </c>
@@ -21138,7 +21138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>28</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>38</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>30</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>21</v>
       </c>
@@ -21458,7 +21458,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>24</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>21</v>
       </c>
@@ -21620,7 +21620,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>34</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>36</v>
       </c>
@@ -21782,7 +21782,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>30</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>68</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>37</v>
       </c>
@@ -22026,7 +22026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>23</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>50</v>
       </c>
@@ -22190,7 +22190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>37</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>28</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>24</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>41</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>30</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>52</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>43</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>29</v>
       </c>
@@ -22920,7 +22920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>25</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>29</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>29</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>34</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>36</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>20</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>34</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>23</v>
       </c>
@@ -23566,7 +23566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>23</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>40</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>27</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>37</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>31</v>
       </c>
@@ -23970,7 +23970,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>30</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>29</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>33</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>34</v>
       </c>
@@ -24290,7 +24290,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>53</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>21</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>42</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>44</v>
       </c>
@@ -24612,7 +24612,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>61</v>
       </c>
@@ -24692,7 +24692,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>40</v>
       </c>
@@ -24774,7 +24774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>38</v>
       </c>
@@ -24854,7 +24854,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>44</v>
       </c>
@@ -24934,7 +24934,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>26</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>38</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>35</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>56</v>
       </c>
@@ -25258,7 +25258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>20</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>29</v>
       </c>
@@ -25420,7 +25420,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>42</v>
       </c>
@@ -25500,7 +25500,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>33</v>
       </c>
@@ -25580,7 +25580,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>35</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>39</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>27</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>35</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>47</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>53</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>45</v>
       </c>
@@ -26138,7 +26138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>25</v>
       </c>
@@ -26218,7 +26218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>70</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>26</v>
       </c>
@@ -26376,7 +26376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>32</v>
       </c>
@@ -26458,7 +26458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>37</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>32</v>
       </c>
@@ -26616,7 +26616,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>23</v>
       </c>
@@ -26696,7 +26696,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>30</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>26</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>31</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>37</v>
       </c>
@@ -27018,7 +27018,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>28</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>21</v>
       </c>
@@ -27180,7 +27180,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>50</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>46</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>37</v>
       </c>
@@ -27420,7 +27420,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>21</v>
       </c>
@@ -27500,7 +27500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>41</v>
       </c>
@@ -27580,7 +27580,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>36</v>
       </c>
@@ -27742,7 +27742,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>35</v>
       </c>
@@ -27908,7 +27908,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>34</v>
       </c>
@@ -27988,7 +27988,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:30" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>25</v>
       </c>
@@ -28103,7 +28103,13 @@
       <c r="AD301" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD300" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AD300" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="21">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>